--- a/botCode/workWithExcelFile/excelDatabase/10class/М-10-3, А-10-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/10class/М-10-3, А-10-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-3, А-10-2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
   <si>
     <t>Понедельник</t>
   </si>
@@ -38,19 +38,19 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Винник Петр Даниилович</t>
   </si>
   <si>
-    <t>русский</t>
+    <t>Штойк 10.4</t>
   </si>
   <si>
-    <t>А-10-2</t>
+    <t>Урок для практических занятий (классрум на время)</t>
   </si>
   <si>
-    <t>Перхулова</t>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
   </si>
   <si>
     <t>Волков Алексей Дмитриевич</t>
@@ -59,10 +59,16 @@
     <t>Английский</t>
   </si>
   <si>
-    <t>см.таблицу после субботы</t>
+    <t>А-10-2</t>
+  </si>
+  <si>
+    <t>Zoom</t>
   </si>
   <si>
     <t>Гаврикова Александра Андреевна</t>
+  </si>
+  <si>
+    <t>Напольских 10.5</t>
   </si>
   <si>
     <t>Информатика</t>
@@ -74,28 +80,25 @@
     <t>Афонин/Ляпин</t>
   </si>
   <si>
-    <t>502/401</t>
-  </si>
-  <si>
     <t>Заикин Тимофей Евгеньевич</t>
   </si>
   <si>
     <t>Кочулина Полина Владимировна</t>
   </si>
   <si>
-    <t>ОКНО</t>
+    <t>Будникова 10.3</t>
   </si>
   <si>
     <t>Марков Михаил Александрович</t>
   </si>
   <si>
-    <t>Ремизов Роман Александрович</t>
+    <t>алгебра</t>
   </si>
   <si>
-    <t>ОБЖ</t>
+    <t>Козодой</t>
   </si>
   <si>
-    <t>Кручинина</t>
+    <t>Ремизов Роман Александрович</t>
   </si>
   <si>
     <t>Шалимов Дмитрий Александрович</t>
@@ -110,34 +113,31 @@
     <t>Щербина</t>
   </si>
   <si>
-    <t>алгебра</t>
+    <t>Физика</t>
   </si>
   <si>
-    <t>Козодой/Щербина</t>
+    <t>Спецмат</t>
   </si>
   <si>
-    <t>403/201</t>
+    <t>русский</t>
   </si>
   <si>
-    <t>Козодой</t>
+    <t>Перхулова</t>
   </si>
   <si>
     <t>Четверг</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Казаков</t>
   </si>
   <si>
     <t>Лит-ра</t>
   </si>
   <si>
     <t>Зенкина</t>
-  </si>
-  <si>
-    <t>География</t>
-  </si>
-  <si>
-    <t>История</t>
-  </si>
-  <si>
-    <t>Казаков</t>
   </si>
   <si>
     <t>Пятница</t>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Булатова</t>
+  </si>
+  <si>
+    <t>МХК</t>
+  </si>
+  <si>
+    <t>Хамидова</t>
   </si>
   <si>
     <t>Биология</t>
@@ -161,16 +167,16 @@
     <t>Мусихин</t>
   </si>
   <si>
-    <t>МХК</t>
-  </si>
-  <si>
-    <t>Хамидова</t>
-  </si>
-  <si>
     <t>Суббота</t>
   </si>
   <si>
+    <t>ОБЖ</t>
+  </si>
+  <si>
     <t>география</t>
+  </si>
+  <si>
+    <t>Корнилова</t>
   </si>
   <si>
     <t>химия</t>
@@ -178,23 +184,12 @@
   <si>
     <t>Поболелова</t>
   </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,22 +199,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +252,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -297,6 +345,43 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -304,44 +389,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,43 +503,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8029575" cy="2752725"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12163425"/>
-          <a:ext cx="8029575" cy="2752725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,24 +768,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист8"/>
+  <sheetPr codeName="Лист9"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="2" customWidth="1"/>
-    <col min="8" max="26" width="7.625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="2"/>
+    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
+    <col min="9" max="26" width="7.625" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -686,7 +795,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -709,14 +818,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -739,24 +848,24 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -776,27 +885,27 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
-        <v>204</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -816,25 +925,27 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -854,27 +965,29 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -894,27 +1007,27 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -934,21 +1047,27 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -968,21 +1087,29 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1003,26 +1130,28 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10">
-        <v>404</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1043,14 +1172,14 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1073,14 +1202,14 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1108,7 +1237,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1131,14 +1260,14 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1161,20 +1290,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1196,23 +1323,23 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6">
-        <v>308</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1234,23 +1361,23 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6">
-        <v>308</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1272,23 +1399,21 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1310,23 +1435,21 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1348,17 +1471,21 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1380,23 +1507,23 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6">
-        <v>305</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1419,20 +1546,20 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1455,22 +1582,14 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="6">
-        <v>403</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1493,22 +1612,14 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="6">
-        <v>403</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1536,7 +1647,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1559,14 +1670,14 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1589,20 +1700,18 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1624,23 +1733,23 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="6">
-        <v>405</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="C28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1662,23 +1771,23 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>2</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="6">
-        <v>405</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1700,23 +1809,23 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="6">
-        <v>308</v>
-      </c>
-      <c r="F30" s="1"/>
+      <c r="C30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1738,23 +1847,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>4</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="6">
-        <v>308</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1776,23 +1883,23 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="6">
-        <v>405</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="B32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1814,23 +1921,23 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>6</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="6">
-        <v>405</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="B33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1853,20 +1960,14 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>7</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>305</v>
-      </c>
-      <c r="F34" s="1"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1889,22 +1990,14 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>8</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="6">
-        <v>207</v>
-      </c>
-      <c r="F35" s="1"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1927,22 +2020,14 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="7">
         <v>9</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="6">
-        <v>207</v>
-      </c>
-      <c r="F36" s="1"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1970,7 +2055,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1993,14 +2078,14 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2023,20 +2108,18 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2058,23 +2141,23 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="D40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2096,23 +2179,23 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>2</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="D41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2134,23 +2217,23 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>3</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="6">
-        <v>207</v>
-      </c>
-      <c r="F42" s="1"/>
+      <c r="E42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2172,23 +2255,23 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>4</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="6">
-        <v>207</v>
-      </c>
-      <c r="F43" s="1"/>
+      <c r="E43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2211,20 +2294,22 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>5</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="1"/>
+      <c r="B44" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2246,23 +2331,23 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>6</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="6">
-        <v>407</v>
-      </c>
-      <c r="F45" s="1"/>
+      <c r="B45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2284,23 +2369,23 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>7</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="6">
-        <v>203</v>
-      </c>
-      <c r="F46" s="1"/>
+      <c r="B46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2323,22 +2408,14 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>8</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="6">
-        <v>405</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2361,14 +2438,14 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>9</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="1"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2396,7 +2473,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2419,14 +2496,14 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2449,20 +2526,18 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2484,23 +2559,21 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>1</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="6">
-        <v>308</v>
-      </c>
-      <c r="F52" s="1"/>
+      <c r="B52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2522,23 +2595,21 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>2</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="6">
-        <v>308</v>
-      </c>
-      <c r="F53" s="1"/>
+      <c r="B53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2560,21 +2631,23 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>3</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="6">
-        <v>305</v>
-      </c>
-      <c r="F54" s="1"/>
+      <c r="B54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2596,23 +2669,23 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>4</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="6">
-        <v>207</v>
-      </c>
-      <c r="F55" s="1"/>
+      <c r="B55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2634,23 +2707,23 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>5</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="6">
-        <v>406</v>
-      </c>
-      <c r="F56" s="1"/>
+      <c r="E56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2672,23 +2745,21 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>6</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="6">
-        <v>406</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="B57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2711,18 +2782,14 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>7</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="1"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2745,14 +2812,14 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>8</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="1"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2775,14 +2842,14 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>9</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="1"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2810,7 +2877,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2838,7 +2905,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="2"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2866,7 +2933,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2894,7 +2961,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2922,7 +2989,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="2"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2950,7 +3017,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="2"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2978,7 +3045,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3006,7 +3073,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="2"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3034,7 +3101,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="2"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3062,7 +3129,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="2"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3090,7 +3157,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="2"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3118,7 +3185,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3146,7 +3213,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3174,7 +3241,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3202,7 +3269,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3230,7 +3297,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3258,7 +3325,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3286,7 +3353,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3314,7 +3381,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="2"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3342,7 +3409,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="2"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3370,7 +3437,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="2"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3398,7 +3465,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3426,7 +3493,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3454,7 +3521,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3482,7 +3549,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -3510,7 +3577,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -3538,7 +3605,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="2"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -3566,7 +3633,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -3594,7 +3661,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="2"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3622,7 +3689,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="2"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3650,7 +3717,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="2"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3678,7 +3745,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="2"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3706,7 +3773,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="2"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3734,7 +3801,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="2"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3762,7 +3829,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="2"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3790,7 +3857,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="2"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -3818,7 +3885,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3846,7 +3913,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="2"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -3874,7 +3941,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="F99" s="2"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3902,7 +3969,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="2"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -3930,7 +3997,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="2"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -3958,7 +4025,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="2"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -3986,7 +4053,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="2"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4014,7 +4081,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4042,7 +4109,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4070,7 +4137,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4098,7 +4165,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4126,7 +4193,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -4154,7 +4221,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -4182,7 +4249,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="2"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4210,7 +4277,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="2"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4238,7 +4305,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="2"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4266,7 +4333,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="2"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -4294,7 +4361,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="2"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -4322,7 +4389,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="2"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4350,7 +4417,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="2"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4378,7 +4445,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4406,7 +4473,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="2"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4434,7 +4501,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="2"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4462,7 +4529,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="2"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4490,7 +4557,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="2"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4518,7 +4585,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="2"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4546,7 +4613,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="2"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4574,7 +4641,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="2"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4602,7 +4669,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="2"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4630,7 +4697,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="2"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4658,7 +4725,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="2"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4686,7 +4753,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="2"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -4714,7 +4781,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="2"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -4742,7 +4809,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="2"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -4770,7 +4837,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="2"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -4798,7 +4865,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="2"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -4826,7 +4893,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="2"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -4854,7 +4921,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -4882,7 +4949,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="2"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -4910,7 +4977,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="2"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -4938,7 +5005,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="2"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -4966,7 +5033,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="2"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -4994,7 +5061,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="F139" s="2"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -5022,7 +5089,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="F140" s="2"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -5050,7 +5117,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="2"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -5078,7 +5145,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="2"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -5106,7 +5173,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="F143" s="2"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -5134,7 +5201,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="2"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -5162,7 +5229,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="F145" s="2"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -5190,7 +5257,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="2"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -5218,7 +5285,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="2"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5246,7 +5313,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="2"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5274,7 +5341,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="2"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5302,7 +5369,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="2"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5330,7 +5397,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="2"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5358,7 +5425,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="2"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5386,7 +5453,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="2"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5414,7 +5481,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="F154" s="2"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5442,7 +5509,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="F155" s="2"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5470,7 +5537,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="2"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5498,7 +5565,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="2"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5526,7 +5593,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="2"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -5554,7 +5621,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="2"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -5582,7 +5649,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="2"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -5610,7 +5677,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="2"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -5638,7 +5705,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="2"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -5666,7 +5733,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="2"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -5694,7 +5761,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="F164" s="2"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -5722,7 +5789,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="F165" s="2"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -5750,7 +5817,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="F166" s="2"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -5778,7 +5845,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="2"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -5806,7 +5873,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="F168" s="2"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -5834,7 +5901,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="2"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -5862,7 +5929,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="F170" s="2"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -5890,7 +5957,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="F171" s="2"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -5918,7 +5985,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="F172" s="2"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -5946,7 +6013,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="F173" s="2"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -5974,7 +6041,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="2"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -6002,7 +6069,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="F175" s="2"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -6030,7 +6097,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="2"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6058,7 +6125,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="F177" s="2"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6086,7 +6153,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="F178" s="2"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6114,7 +6181,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="F179" s="2"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6142,7 +6209,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="2"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6170,7 +6237,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="F181" s="2"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6198,7 +6265,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="F182" s="2"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6226,7 +6293,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="F183" s="2"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6254,7 +6321,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="F184" s="2"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6282,7 +6349,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="F185" s="2"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6310,7 +6377,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="F186" s="2"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6338,7 +6405,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="F187" s="2"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -6366,7 +6433,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="F188" s="2"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -6394,7 +6461,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="F189" s="2"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -6422,7 +6489,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="F190" s="2"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -6450,7 +6517,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="F191" s="2"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -6478,7 +6545,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="F192" s="2"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -6506,7 +6573,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="F193" s="2"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -6534,7 +6601,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="F194" s="2"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -6562,7 +6629,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="F195" s="2"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -6590,7 +6657,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="F196" s="2"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -6618,7 +6685,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="F197" s="2"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -6646,7 +6713,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="F198" s="2"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -6674,7 +6741,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="F199" s="2"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -6702,7 +6769,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="F200" s="2"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -6730,7 +6797,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="F201" s="2"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -6758,7 +6825,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="F202" s="2"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -6786,7 +6853,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
+      <c r="F203" s="2"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -6814,7 +6881,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
+      <c r="F204" s="2"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -6842,7 +6909,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="F205" s="2"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -6870,7 +6937,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="F206" s="2"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -6898,7 +6965,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
+      <c r="F207" s="2"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -6926,7 +6993,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
+      <c r="F208" s="2"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -6954,7 +7021,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="F209" s="2"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -6982,7 +7049,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
+      <c r="F210" s="2"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7010,7 +7077,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="F211" s="2"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7038,7 +7105,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="F212" s="2"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7066,7 +7133,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+      <c r="F213" s="2"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7094,7 +7161,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
+      <c r="F214" s="2"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7122,7 +7189,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+      <c r="F215" s="2"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7150,7 +7217,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
+      <c r="F216" s="2"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -7178,7 +7245,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="F217" s="2"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -7206,7 +7273,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
+      <c r="F218" s="2"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -7234,7 +7301,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
+      <c r="F219" s="2"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -7262,7 +7329,7 @@
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
+      <c r="F220" s="2"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -7290,7 +7357,7 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
+      <c r="F221" s="2"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -7318,7 +7385,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
+      <c r="F222" s="2"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -7346,7 +7413,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="F223" s="2"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -7374,7 +7441,7 @@
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="F224" s="2"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -7402,7 +7469,7 @@
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
+      <c r="F225" s="2"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -7430,7 +7497,7 @@
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="F226" s="2"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -7458,7 +7525,7 @@
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="F227" s="2"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -7486,7 +7553,7 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+      <c r="F228" s="2"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -7514,7 +7581,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+      <c r="F229" s="2"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -7542,7 +7609,7 @@
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
+      <c r="F230" s="2"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -7570,7 +7637,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
+      <c r="F231" s="2"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -7598,7 +7665,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="F232" s="2"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -7626,7 +7693,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+      <c r="F233" s="2"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -7654,7 +7721,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="F234" s="2"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -7682,7 +7749,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
+      <c r="F235" s="2"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -7710,7 +7777,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
+      <c r="F236" s="2"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -7738,7 +7805,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="F237" s="2"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -7766,7 +7833,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="F238" s="2"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -7794,7 +7861,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
+      <c r="F239" s="2"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -7822,7 +7889,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
+      <c r="F240" s="2"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -7850,7 +7917,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
+      <c r="F241" s="2"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -7878,7 +7945,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
+      <c r="F242" s="2"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -7906,7 +7973,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="F243" s="2"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -7934,7 +8001,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+      <c r="F244" s="2"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -7962,7 +8029,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
+      <c r="F245" s="2"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -7990,7 +8057,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
+      <c r="F246" s="2"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -8018,7 +8085,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
+      <c r="F247" s="2"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -8046,7 +8113,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
+      <c r="F248" s="2"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -8074,7 +8141,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
+      <c r="F249" s="2"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -8102,7 +8169,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
+      <c r="F250" s="2"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -8130,7 +8197,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
+      <c r="F251" s="2"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -8158,7 +8225,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="F252" s="2"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -8186,7 +8253,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="F253" s="2"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -8214,7 +8281,7 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="F254" s="2"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -8242,7 +8309,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
+      <c r="F255" s="2"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -8270,7 +8337,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="F256" s="2"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -8298,7 +8365,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+      <c r="F257" s="2"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -8326,7 +8393,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+      <c r="F258" s="2"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -8354,7 +8421,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="F259" s="2"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -8382,7 +8449,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
+      <c r="F260" s="2"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -9145,18 +9212,24 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D44:E44"/>
+  <mergeCells count="15">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/10class/М-10-3, А-10-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/10class/М-10-3, А-10-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-3, А-10-2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>Понедельник</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Винник Петр Даниилович</t>
-  </si>
-  <si>
-    <t>Штойк 10.4</t>
   </si>
   <si>
     <t>Урок для практических занятий (классрум на время)</t>
@@ -68,9 +65,6 @@
     <t>Гаврикова Александра Андреевна</t>
   </si>
   <si>
-    <t>Напольских 10.5</t>
-  </si>
-  <si>
     <t>Информатика</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>Кочулина Полина Владимировна</t>
-  </si>
-  <si>
-    <t>Будникова 10.3</t>
   </si>
   <si>
     <t>Марков Михаил Александрович</t>
@@ -243,7 +234,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +263,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,16 +446,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,7 +759,7 @@
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -782,7 +770,7 @@
     <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
     <col min="9" max="26" width="7.625" style="3" customWidth="1"/>
@@ -863,9 +851,7 @@
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -890,22 +876,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -930,22 +914,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -970,24 +952,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1012,22 +992,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1052,22 +1030,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1092,24 +1068,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1134,24 +1108,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1261,7 +1233,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1328,16 +1300,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -1366,16 +1338,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -1404,15 +1376,15 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1440,15 +1412,15 @@
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1476,15 +1448,15 @@
         <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1512,16 +1484,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -1550,14 +1522,14 @@
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -1671,7 +1643,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1738,16 +1710,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1775,17 +1747,17 @@
       <c r="A29" s="7">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>12</v>
+      <c r="B29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1814,16 +1786,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1852,15 +1824,15 @@
         <v>4</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1888,16 +1860,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -1926,16 +1898,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -2079,7 +2051,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2146,16 +2118,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
@@ -2184,16 +2156,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E41" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -2222,16 +2194,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -2260,16 +2232,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -2297,17 +2269,17 @@
       <c r="A44" s="7">
         <v>5</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>12</v>
+      <c r="B44" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -2336,16 +2308,16 @@
         <v>6</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -2374,16 +2346,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -2411,9 +2383,9 @@
       <c r="A47" s="7">
         <v>8</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="7"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -2442,9 +2414,9 @@
         <v>9</v>
       </c>
       <c r="B48" s="15"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2497,7 +2469,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2564,15 +2536,15 @@
         <v>1</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
       <c r="E52" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2600,15 +2572,15 @@
         <v>2</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
       <c r="E53" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2636,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -2674,16 +2646,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -2712,16 +2684,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -2745,21 +2717,15 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>6</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="2"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -9212,10 +9178,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B57:D57"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A26:E26"/>

--- a/botCode/workWithExcelFile/excelDatabase/10class/М-10-3, А-10-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/10class/М-10-3, А-10-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-3, А-10-2" sheetId="1" r:id="rId1"/>
@@ -190,25 +190,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -216,14 +212,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -231,7 +225,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -243,30 +236,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,43 +323,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -383,26 +339,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,19 +363,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,31 +378,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,21 +679,19 @@
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
-    <col min="9" max="26" width="7.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="26" width="6.75" style="3" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
@@ -878,12 +796,12 @@
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -920,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
@@ -960,7 +878,7 @@
       <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
@@ -994,12 +912,12 @@
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -1032,12 +950,12 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1067,16 +985,16 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2"/>
@@ -1107,16 +1025,16 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2"/>
@@ -1308,7 +1226,7 @@
       <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="2"/>
@@ -1346,7 +1264,7 @@
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2"/>
@@ -1378,12 +1296,12 @@
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="1"/>
@@ -1414,12 +1332,12 @@
       <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="1"/>
@@ -1450,12 +1368,12 @@
       <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1"/>
@@ -1492,7 +1410,7 @@
       <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2"/>
@@ -1528,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2"/>
@@ -1709,16 +1627,16 @@
       <c r="A28" s="7">
         <v>1</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="2"/>
@@ -1747,16 +1665,16 @@
       <c r="A29" s="7">
         <v>2</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2"/>
@@ -1794,7 +1712,7 @@
       <c r="D30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="2"/>
@@ -1826,12 +1744,12 @@
       <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="1"/>
@@ -1868,7 +1786,7 @@
       <c r="D32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2"/>
@@ -1906,7 +1824,7 @@
       <c r="D33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="2"/>
@@ -1935,10 +1853,10 @@
       <c r="A34" s="7">
         <v>7</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1965,10 +1883,10 @@
       <c r="A35" s="7">
         <v>8</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1995,10 +1913,10 @@
       <c r="A36" s="7">
         <v>9</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2126,7 +2044,7 @@
       <c r="D40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="2"/>
@@ -2164,7 +2082,7 @@
       <c r="D41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
@@ -2202,7 +2120,7 @@
       <c r="D42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="2"/>
@@ -2240,7 +2158,7 @@
       <c r="D43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="2"/>
@@ -2269,16 +2187,16 @@
       <c r="A44" s="7">
         <v>5</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="2"/>
@@ -2316,7 +2234,7 @@
       <c r="D45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="2"/>
@@ -2354,7 +2272,7 @@
       <c r="D46" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
@@ -2383,9 +2301,9 @@
       <c r="A47" s="7">
         <v>8</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="7"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -2413,10 +2331,10 @@
       <c r="A48" s="7">
         <v>9</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2538,12 +2456,12 @@
       <c r="B52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="1"/>
@@ -2574,12 +2492,12 @@
       <c r="B53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G53" s="1"/>
@@ -2616,7 +2534,7 @@
       <c r="D54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="2"/>
@@ -2654,7 +2572,7 @@
       <c r="D55" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="2"/>
@@ -2692,7 +2610,7 @@
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="2"/>
@@ -8437,746 +8355,2226 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F261" s="19"/>
+    </row>
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F262" s="19"/>
+    </row>
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F263" s="19"/>
+    </row>
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F264" s="19"/>
+    </row>
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F265" s="19"/>
+    </row>
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F266" s="19"/>
+    </row>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F267" s="19"/>
+    </row>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F268" s="19"/>
+    </row>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F269" s="19"/>
+    </row>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F270" s="19"/>
+    </row>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F271" s="19"/>
+    </row>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F272" s="19"/>
+    </row>
+    <row r="273" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F273" s="19"/>
+    </row>
+    <row r="274" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F274" s="19"/>
+    </row>
+    <row r="275" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F275" s="19"/>
+    </row>
+    <row r="276" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F276" s="19"/>
+    </row>
+    <row r="277" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F277" s="19"/>
+    </row>
+    <row r="278" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F278" s="19"/>
+    </row>
+    <row r="279" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F279" s="19"/>
+    </row>
+    <row r="280" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F280" s="19"/>
+    </row>
+    <row r="281" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F281" s="19"/>
+    </row>
+    <row r="282" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F282" s="19"/>
+    </row>
+    <row r="283" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F283" s="19"/>
+    </row>
+    <row r="284" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F284" s="19"/>
+    </row>
+    <row r="285" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F285" s="19"/>
+    </row>
+    <row r="286" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F286" s="19"/>
+    </row>
+    <row r="287" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F287" s="19"/>
+    </row>
+    <row r="288" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F288" s="19"/>
+    </row>
+    <row r="289" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F289" s="19"/>
+    </row>
+    <row r="290" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F290" s="19"/>
+    </row>
+    <row r="291" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F291" s="19"/>
+    </row>
+    <row r="292" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F292" s="19"/>
+    </row>
+    <row r="293" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F293" s="19"/>
+    </row>
+    <row r="294" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F294" s="19"/>
+    </row>
+    <row r="295" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F295" s="19"/>
+    </row>
+    <row r="296" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F296" s="19"/>
+    </row>
+    <row r="297" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F297" s="19"/>
+    </row>
+    <row r="298" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F298" s="19"/>
+    </row>
+    <row r="299" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F299" s="19"/>
+    </row>
+    <row r="300" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F300" s="19"/>
+    </row>
+    <row r="301" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F301" s="19"/>
+    </row>
+    <row r="302" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F302" s="19"/>
+    </row>
+    <row r="303" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F303" s="19"/>
+    </row>
+    <row r="304" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F304" s="19"/>
+    </row>
+    <row r="305" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F305" s="19"/>
+    </row>
+    <row r="306" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F306" s="19"/>
+    </row>
+    <row r="307" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F307" s="19"/>
+    </row>
+    <row r="308" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F308" s="19"/>
+    </row>
+    <row r="309" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F309" s="19"/>
+    </row>
+    <row r="310" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F310" s="19"/>
+    </row>
+    <row r="311" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F311" s="19"/>
+    </row>
+    <row r="312" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F312" s="19"/>
+    </row>
+    <row r="313" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F313" s="19"/>
+    </row>
+    <row r="314" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F314" s="19"/>
+    </row>
+    <row r="315" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F315" s="19"/>
+    </row>
+    <row r="316" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F316" s="19"/>
+    </row>
+    <row r="317" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F317" s="19"/>
+    </row>
+    <row r="318" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F318" s="19"/>
+    </row>
+    <row r="319" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F319" s="19"/>
+    </row>
+    <row r="320" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F320" s="19"/>
+    </row>
+    <row r="321" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F321" s="19"/>
+    </row>
+    <row r="322" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F322" s="19"/>
+    </row>
+    <row r="323" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F323" s="19"/>
+    </row>
+    <row r="324" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F324" s="19"/>
+    </row>
+    <row r="325" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F325" s="19"/>
+    </row>
+    <row r="326" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F326" s="19"/>
+    </row>
+    <row r="327" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F327" s="19"/>
+    </row>
+    <row r="328" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F328" s="19"/>
+    </row>
+    <row r="329" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F329" s="19"/>
+    </row>
+    <row r="330" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F330" s="19"/>
+    </row>
+    <row r="331" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F331" s="19"/>
+    </row>
+    <row r="332" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F332" s="19"/>
+    </row>
+    <row r="333" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F333" s="19"/>
+    </row>
+    <row r="334" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F334" s="19"/>
+    </row>
+    <row r="335" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F335" s="19"/>
+    </row>
+    <row r="336" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F336" s="19"/>
+    </row>
+    <row r="337" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F337" s="19"/>
+    </row>
+    <row r="338" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F338" s="19"/>
+    </row>
+    <row r="339" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F339" s="19"/>
+    </row>
+    <row r="340" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F340" s="19"/>
+    </row>
+    <row r="341" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F341" s="19"/>
+    </row>
+    <row r="342" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F342" s="19"/>
+    </row>
+    <row r="343" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F343" s="19"/>
+    </row>
+    <row r="344" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F344" s="19"/>
+    </row>
+    <row r="345" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F345" s="19"/>
+    </row>
+    <row r="346" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F346" s="19"/>
+    </row>
+    <row r="347" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F347" s="19"/>
+    </row>
+    <row r="348" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F348" s="19"/>
+    </row>
+    <row r="349" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F349" s="19"/>
+    </row>
+    <row r="350" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F350" s="19"/>
+    </row>
+    <row r="351" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F351" s="19"/>
+    </row>
+    <row r="352" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F352" s="19"/>
+    </row>
+    <row r="353" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F353" s="19"/>
+    </row>
+    <row r="354" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F354" s="19"/>
+    </row>
+    <row r="355" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F355" s="19"/>
+    </row>
+    <row r="356" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F356" s="19"/>
+    </row>
+    <row r="357" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F357" s="19"/>
+    </row>
+    <row r="358" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F358" s="19"/>
+    </row>
+    <row r="359" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F359" s="19"/>
+    </row>
+    <row r="360" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F360" s="19"/>
+    </row>
+    <row r="361" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F361" s="19"/>
+    </row>
+    <row r="362" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F362" s="19"/>
+    </row>
+    <row r="363" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F363" s="19"/>
+    </row>
+    <row r="364" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F364" s="19"/>
+    </row>
+    <row r="365" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F365" s="19"/>
+    </row>
+    <row r="366" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F366" s="19"/>
+    </row>
+    <row r="367" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F367" s="19"/>
+    </row>
+    <row r="368" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F368" s="19"/>
+    </row>
+    <row r="369" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F369" s="19"/>
+    </row>
+    <row r="370" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F370" s="19"/>
+    </row>
+    <row r="371" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F371" s="19"/>
+    </row>
+    <row r="372" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F372" s="19"/>
+    </row>
+    <row r="373" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F373" s="19"/>
+    </row>
+    <row r="374" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F374" s="19"/>
+    </row>
+    <row r="375" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F375" s="19"/>
+    </row>
+    <row r="376" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F376" s="19"/>
+    </row>
+    <row r="377" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F377" s="19"/>
+    </row>
+    <row r="378" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F378" s="19"/>
+    </row>
+    <row r="379" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F379" s="19"/>
+    </row>
+    <row r="380" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F380" s="19"/>
+    </row>
+    <row r="381" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F381" s="19"/>
+    </row>
+    <row r="382" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F382" s="19"/>
+    </row>
+    <row r="383" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F383" s="19"/>
+    </row>
+    <row r="384" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F384" s="19"/>
+    </row>
+    <row r="385" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F385" s="19"/>
+    </row>
+    <row r="386" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F386" s="19"/>
+    </row>
+    <row r="387" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F387" s="19"/>
+    </row>
+    <row r="388" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F388" s="19"/>
+    </row>
+    <row r="389" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F389" s="19"/>
+    </row>
+    <row r="390" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F390" s="19"/>
+    </row>
+    <row r="391" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F391" s="19"/>
+    </row>
+    <row r="392" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F392" s="19"/>
+    </row>
+    <row r="393" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F393" s="19"/>
+    </row>
+    <row r="394" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F394" s="19"/>
+    </row>
+    <row r="395" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F395" s="19"/>
+    </row>
+    <row r="396" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F396" s="19"/>
+    </row>
+    <row r="397" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F397" s="19"/>
+    </row>
+    <row r="398" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F398" s="19"/>
+    </row>
+    <row r="399" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F399" s="19"/>
+    </row>
+    <row r="400" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F400" s="19"/>
+    </row>
+    <row r="401" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F401" s="19"/>
+    </row>
+    <row r="402" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F402" s="19"/>
+    </row>
+    <row r="403" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F403" s="19"/>
+    </row>
+    <row r="404" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F404" s="19"/>
+    </row>
+    <row r="405" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F405" s="19"/>
+    </row>
+    <row r="406" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F406" s="19"/>
+    </row>
+    <row r="407" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F407" s="19"/>
+    </row>
+    <row r="408" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F408" s="19"/>
+    </row>
+    <row r="409" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F409" s="19"/>
+    </row>
+    <row r="410" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F410" s="19"/>
+    </row>
+    <row r="411" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F411" s="19"/>
+    </row>
+    <row r="412" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F412" s="19"/>
+    </row>
+    <row r="413" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F413" s="19"/>
+    </row>
+    <row r="414" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F414" s="19"/>
+    </row>
+    <row r="415" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F415" s="19"/>
+    </row>
+    <row r="416" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F416" s="19"/>
+    </row>
+    <row r="417" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F417" s="19"/>
+    </row>
+    <row r="418" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F418" s="19"/>
+    </row>
+    <row r="419" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F419" s="19"/>
+    </row>
+    <row r="420" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F420" s="19"/>
+    </row>
+    <row r="421" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F421" s="19"/>
+    </row>
+    <row r="422" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F422" s="19"/>
+    </row>
+    <row r="423" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F423" s="19"/>
+    </row>
+    <row r="424" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F424" s="19"/>
+    </row>
+    <row r="425" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F425" s="19"/>
+    </row>
+    <row r="426" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F426" s="19"/>
+    </row>
+    <row r="427" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F427" s="19"/>
+    </row>
+    <row r="428" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F428" s="19"/>
+    </row>
+    <row r="429" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F429" s="19"/>
+    </row>
+    <row r="430" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F430" s="19"/>
+    </row>
+    <row r="431" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F431" s="19"/>
+    </row>
+    <row r="432" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F432" s="19"/>
+    </row>
+    <row r="433" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F433" s="19"/>
+    </row>
+    <row r="434" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F434" s="19"/>
+    </row>
+    <row r="435" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F435" s="19"/>
+    </row>
+    <row r="436" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F436" s="19"/>
+    </row>
+    <row r="437" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F437" s="19"/>
+    </row>
+    <row r="438" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F438" s="19"/>
+    </row>
+    <row r="439" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F439" s="19"/>
+    </row>
+    <row r="440" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F440" s="19"/>
+    </row>
+    <row r="441" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F441" s="19"/>
+    </row>
+    <row r="442" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F442" s="19"/>
+    </row>
+    <row r="443" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F443" s="19"/>
+    </row>
+    <row r="444" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F444" s="19"/>
+    </row>
+    <row r="445" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F445" s="19"/>
+    </row>
+    <row r="446" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F446" s="19"/>
+    </row>
+    <row r="447" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F447" s="19"/>
+    </row>
+    <row r="448" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F448" s="19"/>
+    </row>
+    <row r="449" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F449" s="19"/>
+    </row>
+    <row r="450" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F450" s="19"/>
+    </row>
+    <row r="451" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F451" s="19"/>
+    </row>
+    <row r="452" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F452" s="19"/>
+    </row>
+    <row r="453" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F453" s="19"/>
+    </row>
+    <row r="454" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F454" s="19"/>
+    </row>
+    <row r="455" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F455" s="19"/>
+    </row>
+    <row r="456" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F456" s="19"/>
+    </row>
+    <row r="457" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F457" s="19"/>
+    </row>
+    <row r="458" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F458" s="19"/>
+    </row>
+    <row r="459" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F459" s="19"/>
+    </row>
+    <row r="460" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F460" s="19"/>
+    </row>
+    <row r="461" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F461" s="19"/>
+    </row>
+    <row r="462" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F462" s="19"/>
+    </row>
+    <row r="463" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F463" s="19"/>
+    </row>
+    <row r="464" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F464" s="19"/>
+    </row>
+    <row r="465" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F465" s="19"/>
+    </row>
+    <row r="466" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F466" s="19"/>
+    </row>
+    <row r="467" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F467" s="19"/>
+    </row>
+    <row r="468" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F468" s="19"/>
+    </row>
+    <row r="469" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F469" s="19"/>
+    </row>
+    <row r="470" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F470" s="19"/>
+    </row>
+    <row r="471" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F471" s="19"/>
+    </row>
+    <row r="472" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F472" s="19"/>
+    </row>
+    <row r="473" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F473" s="19"/>
+    </row>
+    <row r="474" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F474" s="19"/>
+    </row>
+    <row r="475" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F475" s="19"/>
+    </row>
+    <row r="476" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F476" s="19"/>
+    </row>
+    <row r="477" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F477" s="19"/>
+    </row>
+    <row r="478" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F478" s="19"/>
+    </row>
+    <row r="479" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F479" s="19"/>
+    </row>
+    <row r="480" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F480" s="19"/>
+    </row>
+    <row r="481" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F481" s="19"/>
+    </row>
+    <row r="482" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F482" s="19"/>
+    </row>
+    <row r="483" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F483" s="19"/>
+    </row>
+    <row r="484" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F484" s="19"/>
+    </row>
+    <row r="485" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F485" s="19"/>
+    </row>
+    <row r="486" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F486" s="19"/>
+    </row>
+    <row r="487" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F487" s="19"/>
+    </row>
+    <row r="488" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F488" s="19"/>
+    </row>
+    <row r="489" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F489" s="19"/>
+    </row>
+    <row r="490" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F490" s="19"/>
+    </row>
+    <row r="491" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F491" s="19"/>
+    </row>
+    <row r="492" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F492" s="19"/>
+    </row>
+    <row r="493" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F493" s="19"/>
+    </row>
+    <row r="494" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F494" s="19"/>
+    </row>
+    <row r="495" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F495" s="19"/>
+    </row>
+    <row r="496" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F496" s="19"/>
+    </row>
+    <row r="497" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F497" s="19"/>
+    </row>
+    <row r="498" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F498" s="19"/>
+    </row>
+    <row r="499" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F499" s="19"/>
+    </row>
+    <row r="500" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F500" s="19"/>
+    </row>
+    <row r="501" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F501" s="19"/>
+    </row>
+    <row r="502" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F502" s="19"/>
+    </row>
+    <row r="503" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F503" s="19"/>
+    </row>
+    <row r="504" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F504" s="19"/>
+    </row>
+    <row r="505" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F505" s="19"/>
+    </row>
+    <row r="506" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F506" s="19"/>
+    </row>
+    <row r="507" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F507" s="19"/>
+    </row>
+    <row r="508" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F508" s="19"/>
+    </row>
+    <row r="509" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F509" s="19"/>
+    </row>
+    <row r="510" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F510" s="19"/>
+    </row>
+    <row r="511" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F511" s="19"/>
+    </row>
+    <row r="512" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F512" s="19"/>
+    </row>
+    <row r="513" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F513" s="19"/>
+    </row>
+    <row r="514" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F514" s="19"/>
+    </row>
+    <row r="515" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F515" s="19"/>
+    </row>
+    <row r="516" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F516" s="19"/>
+    </row>
+    <row r="517" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F517" s="19"/>
+    </row>
+    <row r="518" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F518" s="19"/>
+    </row>
+    <row r="519" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F519" s="19"/>
+    </row>
+    <row r="520" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F520" s="19"/>
+    </row>
+    <row r="521" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F521" s="19"/>
+    </row>
+    <row r="522" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F522" s="19"/>
+    </row>
+    <row r="523" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F523" s="19"/>
+    </row>
+    <row r="524" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F524" s="19"/>
+    </row>
+    <row r="525" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F525" s="19"/>
+    </row>
+    <row r="526" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F526" s="19"/>
+    </row>
+    <row r="527" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F527" s="19"/>
+    </row>
+    <row r="528" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F528" s="19"/>
+    </row>
+    <row r="529" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F529" s="19"/>
+    </row>
+    <row r="530" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F530" s="19"/>
+    </row>
+    <row r="531" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F531" s="19"/>
+    </row>
+    <row r="532" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F532" s="19"/>
+    </row>
+    <row r="533" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F533" s="19"/>
+    </row>
+    <row r="534" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F534" s="19"/>
+    </row>
+    <row r="535" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F535" s="19"/>
+    </row>
+    <row r="536" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F536" s="19"/>
+    </row>
+    <row r="537" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F537" s="19"/>
+    </row>
+    <row r="538" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F538" s="19"/>
+    </row>
+    <row r="539" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F539" s="19"/>
+    </row>
+    <row r="540" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F540" s="19"/>
+    </row>
+    <row r="541" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F541" s="19"/>
+    </row>
+    <row r="542" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F542" s="19"/>
+    </row>
+    <row r="543" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F543" s="19"/>
+    </row>
+    <row r="544" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F544" s="19"/>
+    </row>
+    <row r="545" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F545" s="19"/>
+    </row>
+    <row r="546" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F546" s="19"/>
+    </row>
+    <row r="547" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F547" s="19"/>
+    </row>
+    <row r="548" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F548" s="19"/>
+    </row>
+    <row r="549" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F549" s="19"/>
+    </row>
+    <row r="550" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F550" s="19"/>
+    </row>
+    <row r="551" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F551" s="19"/>
+    </row>
+    <row r="552" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F552" s="19"/>
+    </row>
+    <row r="553" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F553" s="19"/>
+    </row>
+    <row r="554" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F554" s="19"/>
+    </row>
+    <row r="555" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F555" s="19"/>
+    </row>
+    <row r="556" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F556" s="19"/>
+    </row>
+    <row r="557" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F557" s="19"/>
+    </row>
+    <row r="558" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F558" s="19"/>
+    </row>
+    <row r="559" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F559" s="19"/>
+    </row>
+    <row r="560" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F560" s="19"/>
+    </row>
+    <row r="561" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F561" s="19"/>
+    </row>
+    <row r="562" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F562" s="19"/>
+    </row>
+    <row r="563" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F563" s="19"/>
+    </row>
+    <row r="564" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F564" s="19"/>
+    </row>
+    <row r="565" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F565" s="19"/>
+    </row>
+    <row r="566" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F566" s="19"/>
+    </row>
+    <row r="567" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F567" s="19"/>
+    </row>
+    <row r="568" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F568" s="19"/>
+    </row>
+    <row r="569" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F569" s="19"/>
+    </row>
+    <row r="570" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F570" s="19"/>
+    </row>
+    <row r="571" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F571" s="19"/>
+    </row>
+    <row r="572" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F572" s="19"/>
+    </row>
+    <row r="573" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F573" s="19"/>
+    </row>
+    <row r="574" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F574" s="19"/>
+    </row>
+    <row r="575" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F575" s="19"/>
+    </row>
+    <row r="576" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F576" s="19"/>
+    </row>
+    <row r="577" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F577" s="19"/>
+    </row>
+    <row r="578" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F578" s="19"/>
+    </row>
+    <row r="579" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F579" s="19"/>
+    </row>
+    <row r="580" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F580" s="19"/>
+    </row>
+    <row r="581" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F581" s="19"/>
+    </row>
+    <row r="582" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F582" s="19"/>
+    </row>
+    <row r="583" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F583" s="19"/>
+    </row>
+    <row r="584" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F584" s="19"/>
+    </row>
+    <row r="585" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F585" s="19"/>
+    </row>
+    <row r="586" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F586" s="19"/>
+    </row>
+    <row r="587" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F587" s="19"/>
+    </row>
+    <row r="588" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F588" s="19"/>
+    </row>
+    <row r="589" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F589" s="19"/>
+    </row>
+    <row r="590" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F590" s="19"/>
+    </row>
+    <row r="591" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F591" s="19"/>
+    </row>
+    <row r="592" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F592" s="19"/>
+    </row>
+    <row r="593" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F593" s="19"/>
+    </row>
+    <row r="594" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F594" s="19"/>
+    </row>
+    <row r="595" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F595" s="19"/>
+    </row>
+    <row r="596" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F596" s="19"/>
+    </row>
+    <row r="597" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F597" s="19"/>
+    </row>
+    <row r="598" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F598" s="19"/>
+    </row>
+    <row r="599" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F599" s="19"/>
+    </row>
+    <row r="600" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F600" s="19"/>
+    </row>
+    <row r="601" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F601" s="19"/>
+    </row>
+    <row r="602" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F602" s="19"/>
+    </row>
+    <row r="603" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F603" s="19"/>
+    </row>
+    <row r="604" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F604" s="19"/>
+    </row>
+    <row r="605" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F605" s="19"/>
+    </row>
+    <row r="606" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F606" s="19"/>
+    </row>
+    <row r="607" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F607" s="19"/>
+    </row>
+    <row r="608" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F608" s="19"/>
+    </row>
+    <row r="609" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F609" s="19"/>
+    </row>
+    <row r="610" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F610" s="19"/>
+    </row>
+    <row r="611" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F611" s="19"/>
+    </row>
+    <row r="612" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F612" s="19"/>
+    </row>
+    <row r="613" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F613" s="19"/>
+    </row>
+    <row r="614" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F614" s="19"/>
+    </row>
+    <row r="615" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F615" s="19"/>
+    </row>
+    <row r="616" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F616" s="19"/>
+    </row>
+    <row r="617" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F617" s="19"/>
+    </row>
+    <row r="618" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F618" s="19"/>
+    </row>
+    <row r="619" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F619" s="19"/>
+    </row>
+    <row r="620" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F620" s="19"/>
+    </row>
+    <row r="621" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F621" s="19"/>
+    </row>
+    <row r="622" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F622" s="19"/>
+    </row>
+    <row r="623" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F623" s="19"/>
+    </row>
+    <row r="624" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F624" s="19"/>
+    </row>
+    <row r="625" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F625" s="19"/>
+    </row>
+    <row r="626" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F626" s="19"/>
+    </row>
+    <row r="627" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F627" s="19"/>
+    </row>
+    <row r="628" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F628" s="19"/>
+    </row>
+    <row r="629" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F629" s="19"/>
+    </row>
+    <row r="630" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F630" s="19"/>
+    </row>
+    <row r="631" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F631" s="19"/>
+    </row>
+    <row r="632" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F632" s="19"/>
+    </row>
+    <row r="633" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F633" s="19"/>
+    </row>
+    <row r="634" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F634" s="19"/>
+    </row>
+    <row r="635" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F635" s="19"/>
+    </row>
+    <row r="636" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F636" s="19"/>
+    </row>
+    <row r="637" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F637" s="19"/>
+    </row>
+    <row r="638" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F638" s="19"/>
+    </row>
+    <row r="639" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F639" s="19"/>
+    </row>
+    <row r="640" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F640" s="19"/>
+    </row>
+    <row r="641" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F641" s="19"/>
+    </row>
+    <row r="642" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F642" s="19"/>
+    </row>
+    <row r="643" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F643" s="19"/>
+    </row>
+    <row r="644" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F644" s="19"/>
+    </row>
+    <row r="645" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F645" s="19"/>
+    </row>
+    <row r="646" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F646" s="19"/>
+    </row>
+    <row r="647" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F647" s="19"/>
+    </row>
+    <row r="648" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F648" s="19"/>
+    </row>
+    <row r="649" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F649" s="19"/>
+    </row>
+    <row r="650" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F650" s="19"/>
+    </row>
+    <row r="651" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F651" s="19"/>
+    </row>
+    <row r="652" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F652" s="19"/>
+    </row>
+    <row r="653" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F653" s="19"/>
+    </row>
+    <row r="654" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F654" s="19"/>
+    </row>
+    <row r="655" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F655" s="19"/>
+    </row>
+    <row r="656" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F656" s="19"/>
+    </row>
+    <row r="657" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F657" s="19"/>
+    </row>
+    <row r="658" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F658" s="19"/>
+    </row>
+    <row r="659" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F659" s="19"/>
+    </row>
+    <row r="660" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F660" s="19"/>
+    </row>
+    <row r="661" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F661" s="19"/>
+    </row>
+    <row r="662" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F662" s="19"/>
+    </row>
+    <row r="663" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F663" s="19"/>
+    </row>
+    <row r="664" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F664" s="19"/>
+    </row>
+    <row r="665" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F665" s="19"/>
+    </row>
+    <row r="666" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F666" s="19"/>
+    </row>
+    <row r="667" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F667" s="19"/>
+    </row>
+    <row r="668" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F668" s="19"/>
+    </row>
+    <row r="669" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F669" s="19"/>
+    </row>
+    <row r="670" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F670" s="19"/>
+    </row>
+    <row r="671" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F671" s="19"/>
+    </row>
+    <row r="672" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F672" s="19"/>
+    </row>
+    <row r="673" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F673" s="19"/>
+    </row>
+    <row r="674" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F674" s="19"/>
+    </row>
+    <row r="675" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F675" s="19"/>
+    </row>
+    <row r="676" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F676" s="19"/>
+    </row>
+    <row r="677" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F677" s="19"/>
+    </row>
+    <row r="678" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F678" s="19"/>
+    </row>
+    <row r="679" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F679" s="19"/>
+    </row>
+    <row r="680" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F680" s="19"/>
+    </row>
+    <row r="681" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F681" s="19"/>
+    </row>
+    <row r="682" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F682" s="19"/>
+    </row>
+    <row r="683" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F683" s="19"/>
+    </row>
+    <row r="684" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F684" s="19"/>
+    </row>
+    <row r="685" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F685" s="19"/>
+    </row>
+    <row r="686" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F686" s="19"/>
+    </row>
+    <row r="687" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F687" s="19"/>
+    </row>
+    <row r="688" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F688" s="19"/>
+    </row>
+    <row r="689" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F689" s="19"/>
+    </row>
+    <row r="690" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F690" s="19"/>
+    </row>
+    <row r="691" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F691" s="19"/>
+    </row>
+    <row r="692" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F692" s="19"/>
+    </row>
+    <row r="693" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F693" s="19"/>
+    </row>
+    <row r="694" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F694" s="19"/>
+    </row>
+    <row r="695" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F695" s="19"/>
+    </row>
+    <row r="696" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F696" s="19"/>
+    </row>
+    <row r="697" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F697" s="19"/>
+    </row>
+    <row r="698" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F698" s="19"/>
+    </row>
+    <row r="699" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F699" s="19"/>
+    </row>
+    <row r="700" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F700" s="19"/>
+    </row>
+    <row r="701" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F701" s="19"/>
+    </row>
+    <row r="702" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F702" s="19"/>
+    </row>
+    <row r="703" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F703" s="19"/>
+    </row>
+    <row r="704" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F704" s="19"/>
+    </row>
+    <row r="705" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F705" s="19"/>
+    </row>
+    <row r="706" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F706" s="19"/>
+    </row>
+    <row r="707" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F707" s="19"/>
+    </row>
+    <row r="708" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F708" s="19"/>
+    </row>
+    <row r="709" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F709" s="19"/>
+    </row>
+    <row r="710" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F710" s="19"/>
+    </row>
+    <row r="711" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F711" s="19"/>
+    </row>
+    <row r="712" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F712" s="19"/>
+    </row>
+    <row r="713" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F713" s="19"/>
+    </row>
+    <row r="714" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F714" s="19"/>
+    </row>
+    <row r="715" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F715" s="19"/>
+    </row>
+    <row r="716" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F716" s="19"/>
+    </row>
+    <row r="717" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F717" s="19"/>
+    </row>
+    <row r="718" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F718" s="19"/>
+    </row>
+    <row r="719" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F719" s="19"/>
+    </row>
+    <row r="720" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F720" s="19"/>
+    </row>
+    <row r="721" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F721" s="19"/>
+    </row>
+    <row r="722" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F722" s="19"/>
+    </row>
+    <row r="723" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F723" s="19"/>
+    </row>
+    <row r="724" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F724" s="19"/>
+    </row>
+    <row r="725" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F725" s="19"/>
+    </row>
+    <row r="726" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F726" s="19"/>
+    </row>
+    <row r="727" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F727" s="19"/>
+    </row>
+    <row r="728" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F728" s="19"/>
+    </row>
+    <row r="729" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F729" s="19"/>
+    </row>
+    <row r="730" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F730" s="19"/>
+    </row>
+    <row r="731" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F731" s="19"/>
+    </row>
+    <row r="732" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F732" s="19"/>
+    </row>
+    <row r="733" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F733" s="19"/>
+    </row>
+    <row r="734" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F734" s="19"/>
+    </row>
+    <row r="735" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F735" s="19"/>
+    </row>
+    <row r="736" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F736" s="19"/>
+    </row>
+    <row r="737" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F737" s="19"/>
+    </row>
+    <row r="738" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F738" s="19"/>
+    </row>
+    <row r="739" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F739" s="19"/>
+    </row>
+    <row r="740" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F740" s="19"/>
+    </row>
+    <row r="741" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F741" s="19"/>
+    </row>
+    <row r="742" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F742" s="19"/>
+    </row>
+    <row r="743" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F743" s="19"/>
+    </row>
+    <row r="744" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F744" s="19"/>
+    </row>
+    <row r="745" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F745" s="19"/>
+    </row>
+    <row r="746" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F746" s="19"/>
+    </row>
+    <row r="747" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F747" s="19"/>
+    </row>
+    <row r="748" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F748" s="19"/>
+    </row>
+    <row r="749" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F749" s="19"/>
+    </row>
+    <row r="750" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F750" s="19"/>
+    </row>
+    <row r="751" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F751" s="19"/>
+    </row>
+    <row r="752" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F752" s="19"/>
+    </row>
+    <row r="753" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F753" s="19"/>
+    </row>
+    <row r="754" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F754" s="19"/>
+    </row>
+    <row r="755" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F755" s="19"/>
+    </row>
+    <row r="756" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F756" s="19"/>
+    </row>
+    <row r="757" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F757" s="19"/>
+    </row>
+    <row r="758" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F758" s="19"/>
+    </row>
+    <row r="759" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F759" s="19"/>
+    </row>
+    <row r="760" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F760" s="19"/>
+    </row>
+    <row r="761" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F761" s="19"/>
+    </row>
+    <row r="762" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F762" s="19"/>
+    </row>
+    <row r="763" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F763" s="19"/>
+    </row>
+    <row r="764" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F764" s="19"/>
+    </row>
+    <row r="765" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F765" s="19"/>
+    </row>
+    <row r="766" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F766" s="19"/>
+    </row>
+    <row r="767" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F767" s="19"/>
+    </row>
+    <row r="768" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F768" s="19"/>
+    </row>
+    <row r="769" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F769" s="19"/>
+    </row>
+    <row r="770" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F770" s="19"/>
+    </row>
+    <row r="771" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F771" s="19"/>
+    </row>
+    <row r="772" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F772" s="19"/>
+    </row>
+    <row r="773" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F773" s="19"/>
+    </row>
+    <row r="774" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F774" s="19"/>
+    </row>
+    <row r="775" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F775" s="19"/>
+    </row>
+    <row r="776" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F776" s="19"/>
+    </row>
+    <row r="777" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F777" s="19"/>
+    </row>
+    <row r="778" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F778" s="19"/>
+    </row>
+    <row r="779" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F779" s="19"/>
+    </row>
+    <row r="780" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F780" s="19"/>
+    </row>
+    <row r="781" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F781" s="19"/>
+    </row>
+    <row r="782" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F782" s="19"/>
+    </row>
+    <row r="783" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F783" s="19"/>
+    </row>
+    <row r="784" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F784" s="19"/>
+    </row>
+    <row r="785" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F785" s="19"/>
+    </row>
+    <row r="786" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F786" s="19"/>
+    </row>
+    <row r="787" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F787" s="19"/>
+    </row>
+    <row r="788" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F788" s="19"/>
+    </row>
+    <row r="789" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F789" s="19"/>
+    </row>
+    <row r="790" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F790" s="19"/>
+    </row>
+    <row r="791" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F791" s="19"/>
+    </row>
+    <row r="792" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F792" s="19"/>
+    </row>
+    <row r="793" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F793" s="19"/>
+    </row>
+    <row r="794" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F794" s="19"/>
+    </row>
+    <row r="795" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F795" s="19"/>
+    </row>
+    <row r="796" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F796" s="19"/>
+    </row>
+    <row r="797" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F797" s="19"/>
+    </row>
+    <row r="798" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F798" s="19"/>
+    </row>
+    <row r="799" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F799" s="19"/>
+    </row>
+    <row r="800" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F800" s="19"/>
+    </row>
+    <row r="801" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F801" s="19"/>
+    </row>
+    <row r="802" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F802" s="19"/>
+    </row>
+    <row r="803" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F803" s="19"/>
+    </row>
+    <row r="804" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F804" s="19"/>
+    </row>
+    <row r="805" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F805" s="19"/>
+    </row>
+    <row r="806" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F806" s="19"/>
+    </row>
+    <row r="807" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F807" s="19"/>
+    </row>
+    <row r="808" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F808" s="19"/>
+    </row>
+    <row r="809" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F809" s="19"/>
+    </row>
+    <row r="810" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F810" s="19"/>
+    </row>
+    <row r="811" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F811" s="19"/>
+    </row>
+    <row r="812" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F812" s="19"/>
+    </row>
+    <row r="813" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F813" s="19"/>
+    </row>
+    <row r="814" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F814" s="19"/>
+    </row>
+    <row r="815" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F815" s="19"/>
+    </row>
+    <row r="816" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F816" s="19"/>
+    </row>
+    <row r="817" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F817" s="19"/>
+    </row>
+    <row r="818" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F818" s="19"/>
+    </row>
+    <row r="819" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F819" s="19"/>
+    </row>
+    <row r="820" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F820" s="19"/>
+    </row>
+    <row r="821" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F821" s="19"/>
+    </row>
+    <row r="822" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F822" s="19"/>
+    </row>
+    <row r="823" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F823" s="19"/>
+    </row>
+    <row r="824" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F824" s="19"/>
+    </row>
+    <row r="825" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F825" s="19"/>
+    </row>
+    <row r="826" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F826" s="19"/>
+    </row>
+    <row r="827" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F827" s="19"/>
+    </row>
+    <row r="828" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F828" s="19"/>
+    </row>
+    <row r="829" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F829" s="19"/>
+    </row>
+    <row r="830" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F830" s="19"/>
+    </row>
+    <row r="831" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F831" s="19"/>
+    </row>
+    <row r="832" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F832" s="19"/>
+    </row>
+    <row r="833" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F833" s="19"/>
+    </row>
+    <row r="834" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F834" s="19"/>
+    </row>
+    <row r="835" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F835" s="19"/>
+    </row>
+    <row r="836" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F836" s="19"/>
+    </row>
+    <row r="837" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F837" s="19"/>
+    </row>
+    <row r="838" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F838" s="19"/>
+    </row>
+    <row r="839" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F839" s="19"/>
+    </row>
+    <row r="840" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F840" s="19"/>
+    </row>
+    <row r="841" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F841" s="19"/>
+    </row>
+    <row r="842" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F842" s="19"/>
+    </row>
+    <row r="843" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F843" s="19"/>
+    </row>
+    <row r="844" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F844" s="19"/>
+    </row>
+    <row r="845" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F845" s="19"/>
+    </row>
+    <row r="846" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F846" s="19"/>
+    </row>
+    <row r="847" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F847" s="19"/>
+    </row>
+    <row r="848" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F848" s="19"/>
+    </row>
+    <row r="849" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F849" s="19"/>
+    </row>
+    <row r="850" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F850" s="19"/>
+    </row>
+    <row r="851" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F851" s="19"/>
+    </row>
+    <row r="852" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F852" s="19"/>
+    </row>
+    <row r="853" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F853" s="19"/>
+    </row>
+    <row r="854" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F854" s="19"/>
+    </row>
+    <row r="855" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F855" s="19"/>
+    </row>
+    <row r="856" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F856" s="19"/>
+    </row>
+    <row r="857" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F857" s="19"/>
+    </row>
+    <row r="858" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F858" s="19"/>
+    </row>
+    <row r="859" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F859" s="19"/>
+    </row>
+    <row r="860" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F860" s="19"/>
+    </row>
+    <row r="861" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F861" s="19"/>
+    </row>
+    <row r="862" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F862" s="19"/>
+    </row>
+    <row r="863" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F863" s="19"/>
+    </row>
+    <row r="864" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F864" s="19"/>
+    </row>
+    <row r="865" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F865" s="19"/>
+    </row>
+    <row r="866" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F866" s="19"/>
+    </row>
+    <row r="867" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F867" s="19"/>
+    </row>
+    <row r="868" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F868" s="19"/>
+    </row>
+    <row r="869" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F869" s="19"/>
+    </row>
+    <row r="870" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F870" s="19"/>
+    </row>
+    <row r="871" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F871" s="19"/>
+    </row>
+    <row r="872" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F872" s="19"/>
+    </row>
+    <row r="873" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F873" s="19"/>
+    </row>
+    <row r="874" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F874" s="19"/>
+    </row>
+    <row r="875" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F875" s="19"/>
+    </row>
+    <row r="876" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F876" s="19"/>
+    </row>
+    <row r="877" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F877" s="19"/>
+    </row>
+    <row r="878" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F878" s="19"/>
+    </row>
+    <row r="879" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F879" s="19"/>
+    </row>
+    <row r="880" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F880" s="19"/>
+    </row>
+    <row r="881" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F881" s="19"/>
+    </row>
+    <row r="882" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F882" s="19"/>
+    </row>
+    <row r="883" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F883" s="19"/>
+    </row>
+    <row r="884" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F884" s="19"/>
+    </row>
+    <row r="885" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F885" s="19"/>
+    </row>
+    <row r="886" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F886" s="19"/>
+    </row>
+    <row r="887" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F887" s="19"/>
+    </row>
+    <row r="888" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F888" s="19"/>
+    </row>
+    <row r="889" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F889" s="19"/>
+    </row>
+    <row r="890" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F890" s="19"/>
+    </row>
+    <row r="891" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F891" s="19"/>
+    </row>
+    <row r="892" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F892" s="19"/>
+    </row>
+    <row r="893" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F893" s="19"/>
+    </row>
+    <row r="894" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F894" s="19"/>
+    </row>
+    <row r="895" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F895" s="19"/>
+    </row>
+    <row r="896" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F896" s="19"/>
+    </row>
+    <row r="897" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F897" s="19"/>
+    </row>
+    <row r="898" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F898" s="19"/>
+    </row>
+    <row r="899" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F899" s="19"/>
+    </row>
+    <row r="900" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F900" s="19"/>
+    </row>
+    <row r="901" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F901" s="19"/>
+    </row>
+    <row r="902" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F902" s="19"/>
+    </row>
+    <row r="903" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F903" s="19"/>
+    </row>
+    <row r="904" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F904" s="19"/>
+    </row>
+    <row r="905" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F905" s="19"/>
+    </row>
+    <row r="906" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F906" s="19"/>
+    </row>
+    <row r="907" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F907" s="19"/>
+    </row>
+    <row r="908" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F908" s="19"/>
+    </row>
+    <row r="909" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F909" s="19"/>
+    </row>
+    <row r="910" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F910" s="19"/>
+    </row>
+    <row r="911" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F911" s="19"/>
+    </row>
+    <row r="912" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F912" s="19"/>
+    </row>
+    <row r="913" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F913" s="19"/>
+    </row>
+    <row r="914" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F914" s="19"/>
+    </row>
+    <row r="915" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F915" s="19"/>
+    </row>
+    <row r="916" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F916" s="19"/>
+    </row>
+    <row r="917" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F917" s="19"/>
+    </row>
+    <row r="918" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F918" s="19"/>
+    </row>
+    <row r="919" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F919" s="19"/>
+    </row>
+    <row r="920" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F920" s="19"/>
+    </row>
+    <row r="921" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F921" s="19"/>
+    </row>
+    <row r="922" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F922" s="19"/>
+    </row>
+    <row r="923" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F923" s="19"/>
+    </row>
+    <row r="924" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F924" s="19"/>
+    </row>
+    <row r="925" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F925" s="19"/>
+    </row>
+    <row r="926" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F926" s="19"/>
+    </row>
+    <row r="927" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F927" s="19"/>
+    </row>
+    <row r="928" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F928" s="19"/>
+    </row>
+    <row r="929" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F929" s="19"/>
+    </row>
+    <row r="930" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F930" s="19"/>
+    </row>
+    <row r="931" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F931" s="19"/>
+    </row>
+    <row r="932" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F932" s="19"/>
+    </row>
+    <row r="933" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F933" s="19"/>
+    </row>
+    <row r="934" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F934" s="19"/>
+    </row>
+    <row r="935" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F935" s="19"/>
+    </row>
+    <row r="936" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F936" s="19"/>
+    </row>
+    <row r="937" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F937" s="19"/>
+    </row>
+    <row r="938" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F938" s="19"/>
+    </row>
+    <row r="939" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F939" s="19"/>
+    </row>
+    <row r="940" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F940" s="19"/>
+    </row>
+    <row r="941" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F941" s="19"/>
+    </row>
+    <row r="942" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F942" s="19"/>
+    </row>
+    <row r="943" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F943" s="19"/>
+    </row>
+    <row r="944" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F944" s="19"/>
+    </row>
+    <row r="945" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F945" s="19"/>
+    </row>
+    <row r="946" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F946" s="19"/>
+    </row>
+    <row r="947" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F947" s="19"/>
+    </row>
+    <row r="948" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F948" s="19"/>
+    </row>
+    <row r="949" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F949" s="19"/>
+    </row>
+    <row r="950" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F950" s="19"/>
+    </row>
+    <row r="951" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F951" s="19"/>
+    </row>
+    <row r="952" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F952" s="19"/>
+    </row>
+    <row r="953" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F953" s="19"/>
+    </row>
+    <row r="954" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F954" s="19"/>
+    </row>
+    <row r="955" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F955" s="19"/>
+    </row>
+    <row r="956" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F956" s="19"/>
+    </row>
+    <row r="957" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F957" s="19"/>
+    </row>
+    <row r="958" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F958" s="19"/>
+    </row>
+    <row r="959" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F959" s="19"/>
+    </row>
+    <row r="960" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F960" s="19"/>
+    </row>
+    <row r="961" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F961" s="19"/>
+    </row>
+    <row r="962" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F962" s="19"/>
+    </row>
+    <row r="963" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F963" s="19"/>
+    </row>
+    <row r="964" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F964" s="19"/>
+    </row>
+    <row r="965" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F965" s="19"/>
+    </row>
+    <row r="966" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F966" s="19"/>
+    </row>
+    <row r="967" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F967" s="19"/>
+    </row>
+    <row r="968" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F968" s="19"/>
+    </row>
+    <row r="969" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F969" s="19"/>
+    </row>
+    <row r="970" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F970" s="19"/>
+    </row>
+    <row r="971" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F971" s="19"/>
+    </row>
+    <row r="972" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F972" s="19"/>
+    </row>
+    <row r="973" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F973" s="19"/>
+    </row>
+    <row r="974" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F974" s="19"/>
+    </row>
+    <row r="975" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F975" s="19"/>
+    </row>
+    <row r="976" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F976" s="19"/>
+    </row>
+    <row r="977" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F977" s="19"/>
+    </row>
+    <row r="978" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F978" s="19"/>
+    </row>
+    <row r="979" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F979" s="19"/>
+    </row>
+    <row r="980" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F980" s="19"/>
+    </row>
+    <row r="981" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F981" s="19"/>
+    </row>
+    <row r="982" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F982" s="19"/>
+    </row>
+    <row r="983" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F983" s="19"/>
+    </row>
+    <row r="984" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F984" s="19"/>
+    </row>
+    <row r="985" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F985" s="19"/>
+    </row>
+    <row r="986" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F986" s="19"/>
+    </row>
+    <row r="987" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F987" s="19"/>
+    </row>
+    <row r="988" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F988" s="19"/>
+    </row>
+    <row r="989" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F989" s="19"/>
+    </row>
+    <row r="990" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F990" s="19"/>
+    </row>
+    <row r="991" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F991" s="19"/>
+    </row>
+    <row r="992" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F992" s="19"/>
+    </row>
+    <row r="993" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F993" s="19"/>
+    </row>
+    <row r="994" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F994" s="19"/>
+    </row>
+    <row r="995" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F995" s="19"/>
+    </row>
+    <row r="996" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F996" s="19"/>
+    </row>
+    <row r="997" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F997" s="19"/>
+    </row>
+    <row r="998" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F998" s="19"/>
+    </row>
+    <row r="999" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F999" s="19"/>
+    </row>
+    <row r="1000" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1000" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B52:D52"/>
